--- a/Demand_data.xlsx
+++ b/Demand_data.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2461914_ed_ac_uk/Documents/S1.3. Methodology, Modelling and Consulting Skills/Group project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\github\MMCS_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_087092EC76F8D5D44294D9C0FCE8156B98F64CC4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="884">
   <si>
     <t>geometry</t>
   </si>
@@ -2666,12 +2665,18 @@
   </si>
   <si>
     <t>[419, 420, 433]</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2694,7 +2699,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2717,13 +2722,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3027,30 +3046,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N435"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P435"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="P422" sqref="P422:P435"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3093,8 +3112,14 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3137,8 +3162,14 @@
       <c r="N2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3181,8 +3212,15 @@
       <c r="N3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f>O2+1</f>
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3225,8 +3263,15 @@
       <c r="N4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" ref="O4:O14" si="0">O3+1</f>
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3269,8 +3314,15 @@
       <c r="N5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3313,8 +3365,15 @@
       <c r="N6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3357,8 +3416,15 @@
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3401,8 +3467,15 @@
       <c r="N8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3445,8 +3518,15 @@
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3489,8 +3569,15 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3533,8 +3620,15 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3577,8 +3671,15 @@
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3621,8 +3722,15 @@
       <c r="N13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3665,8 +3773,15 @@
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3709,8 +3824,15 @@
       <c r="N15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <f>O14+1</f>
+        <v>14</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3753,8 +3875,14 @@
       <c r="N16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3797,8 +3925,15 @@
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <f>O16+1</f>
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3841,8 +3976,15 @@
       <c r="N18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <f t="shared" ref="O18:O29" si="1">O17+1</f>
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3885,8 +4027,15 @@
       <c r="N19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3929,8 +4078,15 @@
       <c r="N20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3973,8 +4129,15 @@
       <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4017,8 +4180,15 @@
       <c r="N22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4061,8 +4231,15 @@
       <c r="N23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4105,8 +4282,15 @@
       <c r="N24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4149,8 +4333,15 @@
       <c r="N25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <f>O24+1</f>
+        <v>10</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4193,8 +4384,15 @@
       <c r="N26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4237,8 +4435,15 @@
       <c r="N27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4281,8 +4486,15 @@
       <c r="N28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <f>O27+1</f>
+        <v>13</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4325,8 +4537,15 @@
       <c r="N29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4369,8 +4588,14 @@
       <c r="N30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4413,8 +4638,15 @@
       <c r="N31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <f>O30+1</f>
+        <v>2</v>
+      </c>
+      <c r="P31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4457,8 +4689,15 @@
       <c r="N32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <f t="shared" ref="O32:O43" si="2">O31+1</f>
+        <v>3</v>
+      </c>
+      <c r="P32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4501,8 +4740,15 @@
       <c r="N33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4545,8 +4791,15 @@
       <c r="N34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4589,8 +4842,15 @@
       <c r="N35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="P35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4633,8 +4893,15 @@
       <c r="N36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4677,8 +4944,15 @@
       <c r="N37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="P37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4721,8 +4995,15 @@
       <c r="N38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="P38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4765,8 +5046,15 @@
       <c r="N39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <f>O38+1</f>
+        <v>10</v>
+      </c>
+      <c r="P39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4809,8 +5097,15 @@
       <c r="N40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="P40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4853,8 +5148,15 @@
       <c r="N41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="P41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4897,8 +5199,15 @@
       <c r="N42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <f>O41+1</f>
+        <v>13</v>
+      </c>
+      <c r="P42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4941,8 +5250,15 @@
       <c r="N43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="P43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4985,8 +5301,14 @@
       <c r="N44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5029,8 +5351,15 @@
       <c r="N45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <f>O44+1</f>
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5073,8 +5402,15 @@
       <c r="N46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46">
+        <f t="shared" ref="O46:O57" si="3">O45+1</f>
+        <v>3</v>
+      </c>
+      <c r="P46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5117,8 +5453,15 @@
       <c r="N47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5161,8 +5504,15 @@
       <c r="N48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="P48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5205,8 +5555,15 @@
       <c r="N49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5249,8 +5606,15 @@
       <c r="N50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="P50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5293,8 +5657,15 @@
       <c r="N51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="P51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5337,8 +5708,15 @@
       <c r="N52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="P52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5381,8 +5759,15 @@
       <c r="N53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53">
+        <f>O52+1</f>
+        <v>10</v>
+      </c>
+      <c r="P53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5425,8 +5810,15 @@
       <c r="N54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="P54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5469,8 +5861,15 @@
       <c r="N55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="P55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5513,8 +5912,15 @@
       <c r="N56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56">
+        <f>O55+1</f>
+        <v>13</v>
+      </c>
+      <c r="P56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5557,8 +5963,15 @@
       <c r="N57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="P57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5601,8 +6014,14 @@
       <c r="N58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5645,8 +6064,15 @@
       <c r="N59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <f>O58+1</f>
+        <v>2</v>
+      </c>
+      <c r="P59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5689,8 +6115,15 @@
       <c r="N60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <f t="shared" ref="O60:O71" si="4">O59+1</f>
+        <v>3</v>
+      </c>
+      <c r="P60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5733,8 +6166,15 @@
       <c r="N61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5777,8 +6217,15 @@
       <c r="N62">
         <v>248.50239132431761</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5821,8 +6268,15 @@
       <c r="N63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5865,8 +6319,15 @@
       <c r="N64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="P64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5909,8 +6370,15 @@
       <c r="N65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5953,8 +6421,15 @@
       <c r="N66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="P66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5997,8 +6472,15 @@
       <c r="N67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67">
+        <f>O66+1</f>
+        <v>10</v>
+      </c>
+      <c r="P67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6041,8 +6523,15 @@
       <c r="N68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="P68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6085,8 +6574,15 @@
       <c r="N69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="P69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6129,8 +6625,15 @@
       <c r="N70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70">
+        <f>O69+1</f>
+        <v>13</v>
+      </c>
+      <c r="P70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6173,8 +6676,15 @@
       <c r="N71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="P71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6217,8 +6727,14 @@
       <c r="N72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6261,8 +6777,15 @@
       <c r="N73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73">
+        <f>O72+1</f>
+        <v>2</v>
+      </c>
+      <c r="P73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6305,8 +6828,15 @@
       <c r="N74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74">
+        <f t="shared" ref="O74:O85" si="5">O73+1</f>
+        <v>3</v>
+      </c>
+      <c r="P74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6349,8 +6879,15 @@
       <c r="N75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="P75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6393,8 +6930,15 @@
       <c r="N76">
         <v>309.56850219591462</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6437,8 +6981,15 @@
       <c r="N77">
         <v>1060.216621668643</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="P77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6481,8 +7032,15 @@
       <c r="N78">
         <v>277.1918224114263</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="P78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6525,8 +7083,15 @@
       <c r="N79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="P79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6569,8 +7134,15 @@
       <c r="N80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="P80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6613,8 +7185,15 @@
       <c r="N81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81">
+        <f>O80+1</f>
+        <v>10</v>
+      </c>
+      <c r="P81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6657,8 +7236,15 @@
       <c r="N82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="P82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6701,8 +7287,15 @@
       <c r="N83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="P83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6745,8 +7338,15 @@
       <c r="N84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O84">
+        <f>O83+1</f>
+        <v>13</v>
+      </c>
+      <c r="P84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6789,8 +7389,15 @@
       <c r="N85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O85">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="P85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6833,8 +7440,14 @@
       <c r="N86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6877,8 +7490,15 @@
       <c r="N87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O87">
+        <f>O86+1</f>
+        <v>2</v>
+      </c>
+      <c r="P87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6921,8 +7541,15 @@
       <c r="N88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88">
+        <f t="shared" ref="O88:O99" si="6">O87+1</f>
+        <v>3</v>
+      </c>
+      <c r="P88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6965,8 +7592,15 @@
       <c r="N89">
         <v>288.03400052391191</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O89">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="P89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7009,8 +7643,15 @@
       <c r="N90">
         <v>662.75654495755498</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O90">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="P90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7053,8 +7694,15 @@
       <c r="N91">
         <v>625.92217492008695</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="P91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7097,8 +7745,15 @@
       <c r="N92">
         <v>544.36923726658074</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O92">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="P92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7141,8 +7796,15 @@
       <c r="N93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="P93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7185,8 +7847,15 @@
       <c r="N94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O94">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="P94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7229,8 +7898,15 @@
       <c r="N95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O95">
+        <f>O94+1</f>
+        <v>10</v>
+      </c>
+      <c r="P95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7273,8 +7949,15 @@
       <c r="N96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O96">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="P96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7317,8 +8000,15 @@
       <c r="N97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O97">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="P97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7361,8 +8051,15 @@
       <c r="N98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O98">
+        <f>O97+1</f>
+        <v>13</v>
+      </c>
+      <c r="P98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7405,8 +8102,15 @@
       <c r="N99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O99">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="P99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7449,8 +8153,14 @@
       <c r="N100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7493,8 +8203,15 @@
       <c r="N101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O101">
+        <f>O100+1</f>
+        <v>2</v>
+      </c>
+      <c r="P101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7537,8 +8254,15 @@
       <c r="N102">
         <v>241.82114909497611</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O102">
+        <f t="shared" ref="O102:O113" si="7">O101+1</f>
+        <v>3</v>
+      </c>
+      <c r="P102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7581,8 +8305,15 @@
       <c r="N103">
         <v>1627.4250461298379</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O103">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="P103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7625,8 +8356,15 @@
       <c r="N104">
         <v>1783.221659402956</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O104">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="P104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7669,8 +8407,15 @@
       <c r="N105">
         <v>2920.6797690468829</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O105">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="P105">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7713,8 +8458,15 @@
       <c r="N106">
         <v>1595.447337709631</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O106">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="P106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7757,8 +8509,15 @@
       <c r="N107">
         <v>2708.0922659529201</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O107">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="P107">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7801,8 +8560,15 @@
       <c r="N108">
         <v>1357.352123408499</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O108">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="P108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7845,8 +8611,15 @@
       <c r="N109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O109">
+        <f>O108+1</f>
+        <v>10</v>
+      </c>
+      <c r="P109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7889,8 +8662,15 @@
       <c r="N110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O110">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="P110">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7933,8 +8713,15 @@
       <c r="N111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O111">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="P111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7977,8 +8764,15 @@
       <c r="N112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O112">
+        <f>O111+1</f>
+        <v>13</v>
+      </c>
+      <c r="P112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -8021,8 +8815,15 @@
       <c r="N113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O113">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="P113">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -8065,8 +8866,14 @@
       <c r="N114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -8109,8 +8916,15 @@
       <c r="N115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O115">
+        <f>O114+1</f>
+        <v>2</v>
+      </c>
+      <c r="P115">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -8153,8 +8967,15 @@
       <c r="N116">
         <v>240.16341439469019</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O116">
+        <f t="shared" ref="O116:O127" si="8">O115+1</f>
+        <v>3</v>
+      </c>
+      <c r="P116">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -8197,8 +9018,15 @@
       <c r="N117">
         <v>1588.8626863375209</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O117">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="P117">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8241,8 +9069,15 @@
       <c r="N118">
         <v>5916.8549676087168</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O118">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="P118">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8285,8 +9120,15 @@
       <c r="N119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O119">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="P119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8329,8 +9171,15 @@
       <c r="N120">
         <v>16835.17218326818</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O120">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="P120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8373,8 +9222,15 @@
       <c r="N121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O121">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="P121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8417,8 +9273,15 @@
       <c r="N122">
         <v>16233.35497157879</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O122">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="P122">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8461,8 +9324,15 @@
       <c r="N123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O123">
+        <f>O122+1</f>
+        <v>10</v>
+      </c>
+      <c r="P123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8505,8 +9375,15 @@
       <c r="N124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O124">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="P124">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8549,8 +9426,15 @@
       <c r="N125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O125">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="P125">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8593,8 +9477,15 @@
       <c r="N126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O126">
+        <f>O125+1</f>
+        <v>13</v>
+      </c>
+      <c r="P126">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8637,8 +9528,15 @@
       <c r="N127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O127">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="P127">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8681,8 +9579,14 @@
       <c r="N128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O128">
+        <v>1</v>
+      </c>
+      <c r="P128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8725,8 +9629,15 @@
       <c r="N129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O129">
+        <f>O128+1</f>
+        <v>2</v>
+      </c>
+      <c r="P129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8769,8 +9680,15 @@
       <c r="N130">
         <v>191.07301138032099</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O130">
+        <f t="shared" ref="O130:O141" si="9">O129+1</f>
+        <v>3</v>
+      </c>
+      <c r="P130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8813,8 +9731,15 @@
       <c r="N131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O131">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="P131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8857,8 +9782,15 @@
       <c r="N132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O132">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="P132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8901,8 +9833,15 @@
       <c r="N133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O133">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="P133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8945,8 +9884,15 @@
       <c r="N134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O134">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="P134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -8989,8 +9935,15 @@
       <c r="N135">
         <v>74536.176442233715</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O135">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="P135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -9033,8 +9986,15 @@
       <c r="N136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O136">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="P136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -9077,8 +10037,15 @@
       <c r="N137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O137">
+        <f>O136+1</f>
+        <v>10</v>
+      </c>
+      <c r="P137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -9121,8 +10088,15 @@
       <c r="N138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O138">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="P138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -9165,8 +10139,15 @@
       <c r="N139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O139">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="P139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -9209,8 +10190,15 @@
       <c r="N140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O140">
+        <f>O139+1</f>
+        <v>13</v>
+      </c>
+      <c r="P140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -9253,8 +10241,15 @@
       <c r="N141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O141">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="P141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -9297,8 +10292,14 @@
       <c r="N142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O142">
+        <v>1</v>
+      </c>
+      <c r="P142">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -9341,8 +10342,15 @@
       <c r="N143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O143">
+        <f>O142+1</f>
+        <v>2</v>
+      </c>
+      <c r="P143">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -9385,8 +10393,15 @@
       <c r="N144">
         <v>78.33993503825829</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O144">
+        <f t="shared" ref="O144:O155" si="10">O143+1</f>
+        <v>3</v>
+      </c>
+      <c r="P144">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9429,8 +10444,15 @@
       <c r="N145">
         <v>767.70481831007623</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O145">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="P145">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9473,8 +10495,15 @@
       <c r="N146">
         <v>5432.1257136488257</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O146">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="P146">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9517,8 +10546,15 @@
       <c r="N147">
         <v>12064.989294229599</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O147">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="P147">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -9561,8 +10597,15 @@
       <c r="N148">
         <v>29299.792802261371</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O148">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="P148">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9605,8 +10648,15 @@
       <c r="N149">
         <v>21838.41945959903</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O149">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="P149">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -9649,8 +10699,15 @@
       <c r="N150">
         <v>18415.621872027801</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O150">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="P150">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -9693,8 +10750,15 @@
       <c r="N151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O151">
+        <f>O150+1</f>
+        <v>10</v>
+      </c>
+      <c r="P151">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -9737,8 +10801,15 @@
       <c r="N152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O152">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="P152">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -9781,8 +10852,15 @@
       <c r="N153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O153">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="P153">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -9825,8 +10903,15 @@
       <c r="N154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O154">
+        <f>O153+1</f>
+        <v>13</v>
+      </c>
+      <c r="P154">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -9869,8 +10954,15 @@
       <c r="N155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O155">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="P155">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -9913,8 +11005,14 @@
       <c r="N156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O156">
+        <v>1</v>
+      </c>
+      <c r="P156">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -9957,8 +11055,15 @@
       <c r="N157">
         <v>149.6678626249228</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O157">
+        <f>O156+1</f>
+        <v>2</v>
+      </c>
+      <c r="P157">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -10001,8 +11106,15 @@
       <c r="N158">
         <v>401.84180803763547</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O158">
+        <f t="shared" ref="O158:O169" si="11">O157+1</f>
+        <v>3</v>
+      </c>
+      <c r="P158">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -10045,8 +11157,15 @@
       <c r="N159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O159">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="P159">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -10089,8 +11208,15 @@
       <c r="N160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O160">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="P160">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -10133,8 +11259,15 @@
       <c r="N161">
         <v>20643.314321090638</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O161">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="P161">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -10177,8 +11310,15 @@
       <c r="N162">
         <v>12607.006126371931</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O162">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="P162">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -10221,8 +11361,15 @@
       <c r="N163">
         <v>10025.57752855288</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O163">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="P163">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -10265,8 +11412,15 @@
       <c r="N164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O164">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="P164">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -10309,8 +11463,15 @@
       <c r="N165">
         <v>2307.963496780163</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O165">
+        <f>O164+1</f>
+        <v>10</v>
+      </c>
+      <c r="P165">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -10353,8 +11514,15 @@
       <c r="N166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O166">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="P166">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -10397,8 +11565,15 @@
       <c r="N167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O167">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="P167">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -10441,8 +11616,15 @@
       <c r="N168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O168">
+        <f>O167+1</f>
+        <v>13</v>
+      </c>
+      <c r="P168">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -10485,8 +11667,15 @@
       <c r="N169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O169">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="P169">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -10529,8 +11718,14 @@
       <c r="N170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O170">
+        <v>1</v>
+      </c>
+      <c r="P170">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -10573,8 +11768,15 @@
       <c r="N171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O171">
+        <f>O170+1</f>
+        <v>2</v>
+      </c>
+      <c r="P171">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -10617,8 +11819,15 @@
       <c r="N172">
         <v>5850.3873102776288</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O172">
+        <f t="shared" ref="O172:O183" si="12">O171+1</f>
+        <v>3</v>
+      </c>
+      <c r="P172">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -10661,8 +11870,15 @@
       <c r="N173">
         <v>5521.6074521183782</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O173">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="P173">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -10705,8 +11921,15 @@
       <c r="N174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O174">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="P174">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -10749,8 +11972,15 @@
       <c r="N175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O175">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="P175">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -10793,8 +12023,15 @@
       <c r="N176">
         <v>16872.03331035169</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O176">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="P176">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -10837,8 +12074,15 @@
       <c r="N177">
         <v>14292.3189246365</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O177">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="P177">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -10881,8 +12125,15 @@
       <c r="N178">
         <v>5691.3816385028558</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O178">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="P178">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -10925,8 +12176,15 @@
       <c r="N179">
         <v>1522.17050050078</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O179">
+        <f>O178+1</f>
+        <v>10</v>
+      </c>
+      <c r="P179">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -10969,8 +12227,15 @@
       <c r="N180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O180">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="P180">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -11013,8 +12278,15 @@
       <c r="N181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O181">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="P181">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -11057,8 +12329,15 @@
       <c r="N182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O182">
+        <f>O181+1</f>
+        <v>13</v>
+      </c>
+      <c r="P182">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -11101,8 +12380,15 @@
       <c r="N183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O183">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="P183">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -11145,8 +12431,14 @@
       <c r="N184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O184">
+        <v>1</v>
+      </c>
+      <c r="P184">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -11189,8 +12481,15 @@
       <c r="N185">
         <v>20539.032222432561</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O185">
+        <f>O184+1</f>
+        <v>2</v>
+      </c>
+      <c r="P185">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -11233,8 +12532,15 @@
       <c r="N186">
         <v>32311.509427666391</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O186">
+        <f t="shared" ref="O186:O197" si="13">O185+1</f>
+        <v>3</v>
+      </c>
+      <c r="P186">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -11277,8 +12583,15 @@
       <c r="N187">
         <v>31155.78860245832</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O187">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P187">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -11321,8 +12634,15 @@
       <c r="N188">
         <v>14517.29828204972</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O188">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="P188">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -11365,8 +12685,15 @@
       <c r="N189">
         <v>12304.367978046839</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O189">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="P189">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -11409,8 +12736,15 @@
       <c r="N190">
         <v>34669.553681516547</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O190">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="P190">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -11453,8 +12787,15 @@
       <c r="N191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O191">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="P191">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -11497,8 +12838,15 @@
       <c r="N192">
         <v>5709.8490154763595</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O192">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="P192">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -11541,8 +12889,15 @@
       <c r="N193">
         <v>1863.541918260486</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O193">
+        <f>O192+1</f>
+        <v>10</v>
+      </c>
+      <c r="P193">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -11585,8 +12940,15 @@
       <c r="N194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O194">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="P194">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -11629,8 +12991,15 @@
       <c r="N195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O195">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="P195">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -11673,8 +13042,15 @@
       <c r="N196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O196">
+        <f>O195+1</f>
+        <v>13</v>
+      </c>
+      <c r="P196">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -11717,8 +13093,15 @@
       <c r="N197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O197">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="P197">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -11761,8 +13144,14 @@
       <c r="N198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O198">
+        <v>1</v>
+      </c>
+      <c r="P198">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -11805,8 +13194,15 @@
       <c r="N199">
         <v>22871.1674817399</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O199">
+        <f>O198+1</f>
+        <v>2</v>
+      </c>
+      <c r="P199">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -11849,8 +13245,15 @@
       <c r="N200">
         <v>93064.4145271874</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O200">
+        <f t="shared" ref="O200:O211" si="14">O199+1</f>
+        <v>3</v>
+      </c>
+      <c r="P200">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -11893,8 +13296,15 @@
       <c r="N201">
         <v>69983.107777835045</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O201">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="P201">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -11937,8 +13347,15 @@
       <c r="N202">
         <v>23052.224353021069</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O202">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="P202">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -11981,8 +13398,15 @@
       <c r="N203">
         <v>12688.32265791958</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O203">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="P203">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -12025,8 +13449,15 @@
       <c r="N204">
         <v>11885.517360332949</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O204">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="P204">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -12069,8 +13500,15 @@
       <c r="N205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O205">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="P205">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -12113,8 +13551,15 @@
       <c r="N206">
         <v>3848.6725298221791</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O206">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="P206">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -12157,8 +13602,15 @@
       <c r="N207">
         <v>1195.7470367564431</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O207">
+        <f>O206+1</f>
+        <v>10</v>
+      </c>
+      <c r="P207">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -12201,8 +13653,15 @@
       <c r="N208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O208">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="P208">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -12245,8 +13704,15 @@
       <c r="N209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O209">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="P209">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -12289,8 +13755,15 @@
       <c r="N210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O210">
+        <f>O209+1</f>
+        <v>13</v>
+      </c>
+      <c r="P210">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -12333,8 +13806,15 @@
       <c r="N211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O211">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="P211">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -12377,8 +13857,14 @@
       <c r="N212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O212">
+        <v>1</v>
+      </c>
+      <c r="P212">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -12421,8 +13907,15 @@
       <c r="N213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O213">
+        <f>O212+1</f>
+        <v>2</v>
+      </c>
+      <c r="P213">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -12465,8 +13958,15 @@
       <c r="N214">
         <v>39325.041111952261</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O214">
+        <f t="shared" ref="O214:O225" si="15">O213+1</f>
+        <v>3</v>
+      </c>
+      <c r="P214">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -12509,8 +14009,15 @@
       <c r="N215">
         <v>64046.736464623798</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O215">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="P215">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -12553,8 +14060,15 @@
       <c r="N216">
         <v>24911.84265925175</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O216">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="P216">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -12597,8 +14111,15 @@
       <c r="N217">
         <v>5876.5551395672283</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O217">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="P217">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -12641,8 +14162,15 @@
       <c r="N218">
         <v>2039.202122026993</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O218">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="P218">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -12685,8 +14213,15 @@
       <c r="N219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O219">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="P219">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -12729,8 +14264,15 @@
       <c r="N220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O220">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="P220">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -12773,8 +14315,15 @@
       <c r="N221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O221">
+        <f>O220+1</f>
+        <v>10</v>
+      </c>
+      <c r="P221">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -12817,8 +14366,15 @@
       <c r="N222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O222">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="P222">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -12861,8 +14417,15 @@
       <c r="N223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O223">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="P223">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -12905,8 +14468,15 @@
       <c r="N224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O224">
+        <f>O223+1</f>
+        <v>13</v>
+      </c>
+      <c r="P224">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -12949,8 +14519,15 @@
       <c r="N225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O225">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="P225">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -12993,8 +14570,14 @@
       <c r="N226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O226">
+        <v>1</v>
+      </c>
+      <c r="P226">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -13037,8 +14620,15 @@
       <c r="N227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O227">
+        <f>O226+1</f>
+        <v>2</v>
+      </c>
+      <c r="P227">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -13081,8 +14671,15 @@
       <c r="N228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O228">
+        <f t="shared" ref="O228:O239" si="16">O227+1</f>
+        <v>3</v>
+      </c>
+      <c r="P228">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -13125,8 +14722,15 @@
       <c r="N229">
         <v>25327.434199298001</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O229">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="P229">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -13169,8 +14773,15 @@
       <c r="N230">
         <v>15418.281464330679</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O230">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="P230">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -13213,8 +14824,15 @@
       <c r="N231">
         <v>3022.4093537163239</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O231">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="P231">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -13257,8 +14875,15 @@
       <c r="N232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O232">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="P232">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -13301,8 +14926,15 @@
       <c r="N233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O233">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="P233">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -13345,8 +14977,15 @@
       <c r="N234">
         <v>205.32855341800561</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O234">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="P234">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -13389,8 +15028,15 @@
       <c r="N235">
         <v>383.96763431577079</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O235">
+        <f>O234+1</f>
+        <v>10</v>
+      </c>
+      <c r="P235">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -13433,8 +15079,15 @@
       <c r="N236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O236">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="P236">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -13477,8 +15130,15 @@
       <c r="N237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O237">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="P237">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -13521,8 +15181,15 @@
       <c r="N238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O238">
+        <f>O237+1</f>
+        <v>13</v>
+      </c>
+      <c r="P238">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -13565,8 +15232,15 @@
       <c r="N239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O239">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="P239">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -13609,8 +15283,14 @@
       <c r="N240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O240">
+        <v>1</v>
+      </c>
+      <c r="P240">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -13653,8 +15333,15 @@
       <c r="N241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O241">
+        <f>O240+1</f>
+        <v>2</v>
+      </c>
+      <c r="P241">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -13697,8 +15384,15 @@
       <c r="N242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O242">
+        <f t="shared" ref="O242:O253" si="17">O241+1</f>
+        <v>3</v>
+      </c>
+      <c r="P242">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -13741,8 +15435,15 @@
       <c r="N243">
         <v>4633.1951542086454</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O243">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="P243">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -13785,8 +15486,15 @@
       <c r="N244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O244">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="P244">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -13829,8 +15537,15 @@
       <c r="N245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O245">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="P245">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -13873,8 +15588,15 @@
       <c r="N246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O246">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="P246">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -13917,8 +15639,15 @@
       <c r="N247">
         <v>14.655658662681439</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O247">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="P247">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -13961,8 +15690,15 @@
       <c r="N248">
         <v>207.98206074445321</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O248">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="P248">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -14005,8 +15741,15 @@
       <c r="N249">
         <v>1297.322412158002</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O249">
+        <f>O248+1</f>
+        <v>10</v>
+      </c>
+      <c r="P249">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -14049,8 +15792,15 @@
       <c r="N250">
         <v>1281.319321091547</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O250">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="P250">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -14093,8 +15843,15 @@
       <c r="N251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O251">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="P251">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -14137,8 +15894,15 @@
       <c r="N252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O252">
+        <f>O251+1</f>
+        <v>13</v>
+      </c>
+      <c r="P252">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -14181,8 +15945,15 @@
       <c r="N253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O253">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="P253">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -14225,8 +15996,14 @@
       <c r="N254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O254">
+        <v>1</v>
+      </c>
+      <c r="P254">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -14269,8 +16046,15 @@
       <c r="N255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O255">
+        <f>O254+1</f>
+        <v>2</v>
+      </c>
+      <c r="P255">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -14313,8 +16097,15 @@
       <c r="N256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O256">
+        <f t="shared" ref="O256:O267" si="18">O255+1</f>
+        <v>3</v>
+      </c>
+      <c r="P256">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -14357,8 +16148,15 @@
       <c r="N257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O257">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="P257">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -14401,8 +16199,15 @@
       <c r="N258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O258">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="P258">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -14445,8 +16250,15 @@
       <c r="N259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O259">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="P259">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -14489,8 +16301,15 @@
       <c r="N260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O260">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="P260">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -14533,8 +16352,15 @@
       <c r="N261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O261">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="P261">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -14577,8 +16403,15 @@
       <c r="N262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O262">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="P262">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -14621,8 +16454,15 @@
       <c r="N263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O263">
+        <f>O262+1</f>
+        <v>10</v>
+      </c>
+      <c r="P263">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -14665,8 +16505,15 @@
       <c r="N264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O264">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="P264">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -14709,8 +16556,15 @@
       <c r="N265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O265">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="P265">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -14753,8 +16607,15 @@
       <c r="N266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O266">
+        <f>O265+1</f>
+        <v>13</v>
+      </c>
+      <c r="P266">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -14797,8 +16658,15 @@
       <c r="N267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O267">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="P267">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -14841,8 +16709,14 @@
       <c r="N268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O268">
+        <v>1</v>
+      </c>
+      <c r="P268">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -14885,8 +16759,15 @@
       <c r="N269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O269">
+        <f>O268+1</f>
+        <v>2</v>
+      </c>
+      <c r="P269">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -14929,8 +16810,15 @@
       <c r="N270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O270">
+        <f t="shared" ref="O270:O281" si="19">O269+1</f>
+        <v>3</v>
+      </c>
+      <c r="P270">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -14973,8 +16861,15 @@
       <c r="N271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O271">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="P271">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -15017,8 +16912,15 @@
       <c r="N272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O272">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="P272">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -15061,8 +16963,15 @@
       <c r="N273">
         <v>464.50108659860632</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O273">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="P273">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -15105,8 +17014,15 @@
       <c r="N274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O274">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="P274">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -15149,8 +17065,15 @@
       <c r="N275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O275">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="P275">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -15193,8 +17116,15 @@
       <c r="N276">
         <v>1029.2096963086381</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O276">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="P276">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -15237,8 +17167,15 @@
       <c r="N277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O277">
+        <f>O276+1</f>
+        <v>10</v>
+      </c>
+      <c r="P277">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -15281,8 +17218,15 @@
       <c r="N278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O278">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="P278">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -15325,8 +17269,15 @@
       <c r="N279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O279">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="P279">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -15369,8 +17320,15 @@
       <c r="N280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O280">
+        <f>O279+1</f>
+        <v>13</v>
+      </c>
+      <c r="P280">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -15413,8 +17371,15 @@
       <c r="N281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O281">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="P281">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -15457,8 +17422,14 @@
       <c r="N282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O282">
+        <v>1</v>
+      </c>
+      <c r="P282">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -15501,8 +17472,15 @@
       <c r="N283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O283">
+        <f>O282+1</f>
+        <v>2</v>
+      </c>
+      <c r="P283">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -15545,8 +17523,15 @@
       <c r="N284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O284">
+        <f t="shared" ref="O284:O295" si="20">O283+1</f>
+        <v>3</v>
+      </c>
+      <c r="P284">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -15589,8 +17574,15 @@
       <c r="N285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O285">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="P285">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -15633,8 +17625,15 @@
       <c r="N286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O286">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="P286">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -15677,8 +17676,15 @@
       <c r="N287">
         <v>1355.2980140344589</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O287">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="P287">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -15721,8 +17727,15 @@
       <c r="N288">
         <v>2079.056672532929</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O288">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="P288">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -15765,8 +17778,15 @@
       <c r="N289">
         <v>1602.1166734037699</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O289">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="P289">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -15809,8 +17829,15 @@
       <c r="N290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O290">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="P290">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -15853,8 +17880,15 @@
       <c r="N291">
         <v>953.40590284627103</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O291">
+        <f>O290+1</f>
+        <v>10</v>
+      </c>
+      <c r="P291">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -15897,8 +17931,15 @@
       <c r="N292">
         <v>815.0808408018413</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O292">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="P292">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -15941,8 +17982,15 @@
       <c r="N293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O293">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="P293">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -15985,8 +18033,15 @@
       <c r="N294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O294">
+        <f>O293+1</f>
+        <v>13</v>
+      </c>
+      <c r="P294">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -16029,8 +18084,15 @@
       <c r="N295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O295">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="P295">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -16073,8 +18135,14 @@
       <c r="N296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O296">
+        <v>1</v>
+      </c>
+      <c r="P296">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -16117,8 +18185,15 @@
       <c r="N297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O297">
+        <f>O296+1</f>
+        <v>2</v>
+      </c>
+      <c r="P297">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -16161,8 +18236,15 @@
       <c r="N298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O298">
+        <f t="shared" ref="O298:O309" si="21">O297+1</f>
+        <v>3</v>
+      </c>
+      <c r="P298">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -16205,8 +18287,15 @@
       <c r="N299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O299">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="P299">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -16249,8 +18338,15 @@
       <c r="N300">
         <v>635.54094162626382</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O300">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="P300">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -16293,8 +18389,15 @@
       <c r="N301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O301">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="P301">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -16337,8 +18440,15 @@
       <c r="N302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O302">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="P302">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -16381,8 +18491,15 @@
       <c r="N303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O303">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="P303">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -16425,8 +18542,15 @@
       <c r="N304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O304">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="P304">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -16469,8 +18593,15 @@
       <c r="N305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O305">
+        <f>O304+1</f>
+        <v>10</v>
+      </c>
+      <c r="P305">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -16513,8 +18644,15 @@
       <c r="N306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O306">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="P306">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -16557,8 +18695,15 @@
       <c r="N307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O307">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="P307">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -16601,8 +18746,15 @@
       <c r="N308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O308">
+        <f>O307+1</f>
+        <v>13</v>
+      </c>
+      <c r="P308">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -16645,8 +18797,15 @@
       <c r="N309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O309">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="P309">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -16689,8 +18848,14 @@
       <c r="N310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O310">
+        <v>1</v>
+      </c>
+      <c r="P310">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -16733,8 +18898,15 @@
       <c r="N311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O311">
+        <f>O310+1</f>
+        <v>2</v>
+      </c>
+      <c r="P311">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -16777,8 +18949,15 @@
       <c r="N312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O312">
+        <f t="shared" ref="O312:O323" si="22">O311+1</f>
+        <v>3</v>
+      </c>
+      <c r="P312">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -16821,8 +19000,15 @@
       <c r="N313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O313">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="P313">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -16865,8 +19051,15 @@
       <c r="N314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O314">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="P314">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -16909,8 +19102,15 @@
       <c r="N315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O315">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="P315">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -16953,8 +19153,15 @@
       <c r="N316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O316">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="P316">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -16997,8 +19204,15 @@
       <c r="N317">
         <v>488.26340296715199</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O317">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="P317">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -17041,8 +19255,15 @@
       <c r="N318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O318">
+        <f t="shared" si="22"/>
+        <v>9</v>
+      </c>
+      <c r="P318">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -17085,8 +19306,15 @@
       <c r="N319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O319">
+        <f>O318+1</f>
+        <v>10</v>
+      </c>
+      <c r="P319">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -17129,8 +19357,15 @@
       <c r="N320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O320">
+        <f t="shared" si="22"/>
+        <v>11</v>
+      </c>
+      <c r="P320">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -17173,8 +19408,15 @@
       <c r="N321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O321">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="P321">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -17217,8 +19459,15 @@
       <c r="N322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O322">
+        <f>O321+1</f>
+        <v>13</v>
+      </c>
+      <c r="P322">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -17261,8 +19510,15 @@
       <c r="N323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O323">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+      <c r="P323">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -17305,8 +19561,14 @@
       <c r="N324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O324">
+        <v>1</v>
+      </c>
+      <c r="P324">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
@@ -17349,8 +19611,15 @@
       <c r="N325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O325">
+        <f>O324+1</f>
+        <v>2</v>
+      </c>
+      <c r="P325">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -17393,8 +19662,15 @@
       <c r="N326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O326">
+        <f t="shared" ref="O326:O337" si="23">O325+1</f>
+        <v>3</v>
+      </c>
+      <c r="P326">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -17437,8 +19713,15 @@
       <c r="N327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O327">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="P327">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -17481,8 +19764,15 @@
       <c r="N328">
         <v>78.720607072133546</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O328">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="P328">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -17525,8 +19815,15 @@
       <c r="N329">
         <v>118.5385332042606</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O329">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="P329">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -17569,8 +19866,15 @@
       <c r="N330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O330">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="P330">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -17613,8 +19917,15 @@
       <c r="N331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O331">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="P331">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
@@ -17657,8 +19968,15 @@
       <c r="N332">
         <v>79.140207090225658</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O332">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="P332">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -17701,8 +20019,15 @@
       <c r="N333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O333">
+        <f>O332+1</f>
+        <v>10</v>
+      </c>
+      <c r="P333">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -17745,8 +20070,15 @@
       <c r="N334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O334">
+        <f t="shared" si="23"/>
+        <v>11</v>
+      </c>
+      <c r="P334">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
@@ -17789,8 +20121,15 @@
       <c r="N335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O335">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="P335">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -17833,8 +20172,15 @@
       <c r="N336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O336">
+        <f>O335+1</f>
+        <v>13</v>
+      </c>
+      <c r="P336">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -17877,8 +20223,15 @@
       <c r="N337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O337">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="P337">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
@@ -17921,8 +20274,14 @@
       <c r="N338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O338">
+        <v>1</v>
+      </c>
+      <c r="P338">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
@@ -17965,8 +20324,15 @@
       <c r="N339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O339">
+        <f>O338+1</f>
+        <v>2</v>
+      </c>
+      <c r="P339">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
@@ -18009,8 +20375,15 @@
       <c r="N340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O340">
+        <f t="shared" ref="O340:O351" si="24">O339+1</f>
+        <v>3</v>
+      </c>
+      <c r="P340">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
@@ -18053,8 +20426,15 @@
       <c r="N341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O341">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="P341">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
@@ -18097,8 +20477,15 @@
       <c r="N342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O342">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="P342">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
@@ -18141,8 +20528,15 @@
       <c r="N343">
         <v>3022.71677483128</v>
       </c>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O343">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="P343">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
@@ -18185,8 +20579,15 @@
       <c r="N344">
         <v>1582.5699893445969</v>
       </c>
-    </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O344">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="P344">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -18229,8 +20630,15 @@
       <c r="N345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O345">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="P345">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>345</v>
       </c>
@@ -18273,8 +20681,15 @@
       <c r="N346">
         <v>3.232544124524332</v>
       </c>
-    </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O346">
+        <f t="shared" si="24"/>
+        <v>9</v>
+      </c>
+      <c r="P346">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>346</v>
       </c>
@@ -18317,8 +20732,15 @@
       <c r="N347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O347">
+        <f>O346+1</f>
+        <v>10</v>
+      </c>
+      <c r="P347">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>347</v>
       </c>
@@ -18361,8 +20783,15 @@
       <c r="N348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O348">
+        <f t="shared" si="24"/>
+        <v>11</v>
+      </c>
+      <c r="P348">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>348</v>
       </c>
@@ -18405,8 +20834,15 @@
       <c r="N349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O349">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="P349">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>349</v>
       </c>
@@ -18449,8 +20885,15 @@
       <c r="N350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O350">
+        <f>O349+1</f>
+        <v>13</v>
+      </c>
+      <c r="P350">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>350</v>
       </c>
@@ -18493,8 +20936,15 @@
       <c r="N351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O351">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="P351">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>351</v>
       </c>
@@ -18537,8 +20987,14 @@
       <c r="N352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O352">
+        <v>1</v>
+      </c>
+      <c r="P352">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>352</v>
       </c>
@@ -18581,8 +21037,15 @@
       <c r="N353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O353">
+        <f>O352+1</f>
+        <v>2</v>
+      </c>
+      <c r="P353">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>353</v>
       </c>
@@ -18625,8 +21088,15 @@
       <c r="N354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O354">
+        <f t="shared" ref="O354:O365" si="25">O353+1</f>
+        <v>3</v>
+      </c>
+      <c r="P354">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>354</v>
       </c>
@@ -18669,8 +21139,15 @@
       <c r="N355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O355">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="P355">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>355</v>
       </c>
@@ -18713,8 +21190,15 @@
       <c r="N356">
         <v>19584.44476632166</v>
       </c>
-    </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O356">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="P356">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>356</v>
       </c>
@@ -18757,8 +21241,15 @@
       <c r="N357">
         <v>19531.698574791179</v>
       </c>
-    </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O357">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="P357">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>357</v>
       </c>
@@ -18801,8 +21292,15 @@
       <c r="N358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O358">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="P358">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>358</v>
       </c>
@@ -18845,8 +21343,15 @@
       <c r="N359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O359">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="P359">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>359</v>
       </c>
@@ -18889,8 +21394,15 @@
       <c r="N360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O360">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="P360">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>360</v>
       </c>
@@ -18933,8 +21445,15 @@
       <c r="N361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O361">
+        <f>O360+1</f>
+        <v>10</v>
+      </c>
+      <c r="P361">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>361</v>
       </c>
@@ -18977,8 +21496,15 @@
       <c r="N362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O362">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="P362">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>362</v>
       </c>
@@ -19021,8 +21547,15 @@
       <c r="N363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O363">
+        <f t="shared" si="25"/>
+        <v>12</v>
+      </c>
+      <c r="P363">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>363</v>
       </c>
@@ -19065,8 +21598,15 @@
       <c r="N364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O364">
+        <f>O363+1</f>
+        <v>13</v>
+      </c>
+      <c r="P364">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>364</v>
       </c>
@@ -19109,8 +21649,15 @@
       <c r="N365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O365">
+        <f t="shared" si="25"/>
+        <v>14</v>
+      </c>
+      <c r="P365">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>365</v>
       </c>
@@ -19153,8 +21700,14 @@
       <c r="N366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O366">
+        <v>1</v>
+      </c>
+      <c r="P366">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>366</v>
       </c>
@@ -19197,8 +21750,15 @@
       <c r="N367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O367">
+        <f>O366+1</f>
+        <v>2</v>
+      </c>
+      <c r="P367">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>367</v>
       </c>
@@ -19241,8 +21801,15 @@
       <c r="N368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O368">
+        <f t="shared" ref="O368:O379" si="26">O367+1</f>
+        <v>3</v>
+      </c>
+      <c r="P368">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>368</v>
       </c>
@@ -19285,8 +21852,15 @@
       <c r="N369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O369">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="P369">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>369</v>
       </c>
@@ -19329,8 +21903,15 @@
       <c r="N370">
         <v>77004.260337723259</v>
       </c>
-    </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O370">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="P370">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>370</v>
       </c>
@@ -19373,8 +21954,15 @@
       <c r="N371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O371">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="P371">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>371</v>
       </c>
@@ -19417,8 +22005,15 @@
       <c r="N372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O372">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="P372">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>372</v>
       </c>
@@ -19461,8 +22056,15 @@
       <c r="N373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O373">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="P373">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>373</v>
       </c>
@@ -19505,8 +22107,15 @@
       <c r="N374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O374">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="P374">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>374</v>
       </c>
@@ -19549,8 +22158,15 @@
       <c r="N375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O375">
+        <f>O374+1</f>
+        <v>10</v>
+      </c>
+      <c r="P375">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>375</v>
       </c>
@@ -19593,8 +22209,15 @@
       <c r="N376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O376">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="P376">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>376</v>
       </c>
@@ -19637,8 +22260,15 @@
       <c r="N377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O377">
+        <f t="shared" si="26"/>
+        <v>12</v>
+      </c>
+      <c r="P377">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>377</v>
       </c>
@@ -19681,8 +22311,15 @@
       <c r="N378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O378">
+        <f>O377+1</f>
+        <v>13</v>
+      </c>
+      <c r="P378">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>378</v>
       </c>
@@ -19725,8 +22362,15 @@
       <c r="N379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O379">
+        <f t="shared" si="26"/>
+        <v>14</v>
+      </c>
+      <c r="P379">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>379</v>
       </c>
@@ -19769,8 +22413,14 @@
       <c r="N380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O380">
+        <v>1</v>
+      </c>
+      <c r="P380">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>380</v>
       </c>
@@ -19813,8 +22463,15 @@
       <c r="N381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O381">
+        <f>O380+1</f>
+        <v>2</v>
+      </c>
+      <c r="P381">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>381</v>
       </c>
@@ -19857,8 +22514,15 @@
       <c r="N382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O382">
+        <f t="shared" ref="O382:O393" si="27">O381+1</f>
+        <v>3</v>
+      </c>
+      <c r="P382">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>382</v>
       </c>
@@ -19901,8 +22565,15 @@
       <c r="N383">
         <v>17604.813343929909</v>
       </c>
-    </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O383">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="P383">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>383</v>
       </c>
@@ -19945,8 +22616,15 @@
       <c r="N384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O384">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="P384">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>384</v>
       </c>
@@ -19989,8 +22667,15 @@
       <c r="N385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O385">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="P385">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>385</v>
       </c>
@@ -20033,8 +22718,15 @@
       <c r="N386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O386">
+        <f t="shared" si="27"/>
+        <v>7</v>
+      </c>
+      <c r="P386">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>386</v>
       </c>
@@ -20077,8 +22769,15 @@
       <c r="N387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O387">
+        <f t="shared" si="27"/>
+        <v>8</v>
+      </c>
+      <c r="P387">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>387</v>
       </c>
@@ -20121,8 +22820,15 @@
       <c r="N388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O388">
+        <f t="shared" si="27"/>
+        <v>9</v>
+      </c>
+      <c r="P388">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>388</v>
       </c>
@@ -20165,8 +22871,15 @@
       <c r="N389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O389">
+        <f>O388+1</f>
+        <v>10</v>
+      </c>
+      <c r="P389">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>389</v>
       </c>
@@ -20209,8 +22922,15 @@
       <c r="N390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O390">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="P390">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>390</v>
       </c>
@@ -20253,8 +22973,15 @@
       <c r="N391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O391">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="P391">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>391</v>
       </c>
@@ -20297,8 +23024,15 @@
       <c r="N392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O392">
+        <f>O391+1</f>
+        <v>13</v>
+      </c>
+      <c r="P392">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>392</v>
       </c>
@@ -20341,8 +23075,15 @@
       <c r="N393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O393">
+        <f t="shared" si="27"/>
+        <v>14</v>
+      </c>
+      <c r="P393">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>393</v>
       </c>
@@ -20385,8 +23126,14 @@
       <c r="N394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O394">
+        <v>1</v>
+      </c>
+      <c r="P394">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>394</v>
       </c>
@@ -20429,8 +23176,15 @@
       <c r="N395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O395">
+        <f>O394+1</f>
+        <v>2</v>
+      </c>
+      <c r="P395">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>395</v>
       </c>
@@ -20473,8 +23227,15 @@
       <c r="N396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O396">
+        <f t="shared" ref="O396:O407" si="28">O395+1</f>
+        <v>3</v>
+      </c>
+      <c r="P396">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>396</v>
       </c>
@@ -20517,8 +23278,15 @@
       <c r="N397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O397">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="P397">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>397</v>
       </c>
@@ -20561,8 +23329,15 @@
       <c r="N398">
         <v>1426.5734776180129</v>
       </c>
-    </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O398">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="P398">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>398</v>
       </c>
@@ -20605,8 +23380,15 @@
       <c r="N399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O399">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+      <c r="P399">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>399</v>
       </c>
@@ -20649,8 +23431,15 @@
       <c r="N400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O400">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="P400">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>400</v>
       </c>
@@ -20693,8 +23482,15 @@
       <c r="N401">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O401">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="P401">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>401</v>
       </c>
@@ -20737,8 +23533,15 @@
       <c r="N402">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O402">
+        <f t="shared" si="28"/>
+        <v>9</v>
+      </c>
+      <c r="P402">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>402</v>
       </c>
@@ -20781,8 +23584,15 @@
       <c r="N403">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O403">
+        <f>O402+1</f>
+        <v>10</v>
+      </c>
+      <c r="P403">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>403</v>
       </c>
@@ -20825,8 +23635,15 @@
       <c r="N404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O404">
+        <f t="shared" si="28"/>
+        <v>11</v>
+      </c>
+      <c r="P404">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>404</v>
       </c>
@@ -20869,8 +23686,15 @@
       <c r="N405">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O405">
+        <f t="shared" si="28"/>
+        <v>12</v>
+      </c>
+      <c r="P405">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>405</v>
       </c>
@@ -20913,8 +23737,15 @@
       <c r="N406">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O406">
+        <f>O405+1</f>
+        <v>13</v>
+      </c>
+      <c r="P406">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>406</v>
       </c>
@@ -20957,8 +23788,15 @@
       <c r="N407">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O407">
+        <f t="shared" si="28"/>
+        <v>14</v>
+      </c>
+      <c r="P407">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>407</v>
       </c>
@@ -21001,8 +23839,14 @@
       <c r="N408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O408">
+        <v>1</v>
+      </c>
+      <c r="P408">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>408</v>
       </c>
@@ -21045,8 +23889,15 @@
       <c r="N409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O409">
+        <f>O408+1</f>
+        <v>2</v>
+      </c>
+      <c r="P409">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>409</v>
       </c>
@@ -21089,8 +23940,15 @@
       <c r="N410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O410">
+        <f t="shared" ref="O410:O421" si="29">O409+1</f>
+        <v>3</v>
+      </c>
+      <c r="P410">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>410</v>
       </c>
@@ -21133,8 +23991,15 @@
       <c r="N411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O411">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="P411">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>411</v>
       </c>
@@ -21177,8 +24042,15 @@
       <c r="N412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O412">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="P412">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>412</v>
       </c>
@@ -21221,8 +24093,15 @@
       <c r="N413">
         <v>38.688860079988061</v>
       </c>
-    </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O413">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="P413">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>413</v>
       </c>
@@ -21265,8 +24144,15 @@
       <c r="N414">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O414">
+        <f t="shared" si="29"/>
+        <v>7</v>
+      </c>
+      <c r="P414">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>414</v>
       </c>
@@ -21309,8 +24195,15 @@
       <c r="N415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O415">
+        <f t="shared" si="29"/>
+        <v>8</v>
+      </c>
+      <c r="P415">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>415</v>
       </c>
@@ -21353,8 +24246,15 @@
       <c r="N416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O416">
+        <f t="shared" si="29"/>
+        <v>9</v>
+      </c>
+      <c r="P416">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>416</v>
       </c>
@@ -21397,8 +24297,15 @@
       <c r="N417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O417">
+        <f>O416+1</f>
+        <v>10</v>
+      </c>
+      <c r="P417">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>417</v>
       </c>
@@ -21441,8 +24348,15 @@
       <c r="N418">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O418">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="P418">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>418</v>
       </c>
@@ -21485,8 +24399,15 @@
       <c r="N419">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O419">
+        <f t="shared" si="29"/>
+        <v>12</v>
+      </c>
+      <c r="P419">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>419</v>
       </c>
@@ -21529,8 +24450,15 @@
       <c r="N420">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O420">
+        <f>O419+1</f>
+        <v>13</v>
+      </c>
+      <c r="P420">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>420</v>
       </c>
@@ -21573,8 +24501,15 @@
       <c r="N421">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O421">
+        <f t="shared" si="29"/>
+        <v>14</v>
+      </c>
+      <c r="P421">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>421</v>
       </c>
@@ -21617,8 +24552,14 @@
       <c r="N422">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O422">
+        <v>1</v>
+      </c>
+      <c r="P422">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>422</v>
       </c>
@@ -21661,8 +24602,15 @@
       <c r="N423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O423">
+        <f>O422+1</f>
+        <v>2</v>
+      </c>
+      <c r="P423">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>423</v>
       </c>
@@ -21705,8 +24653,15 @@
       <c r="N424">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O424">
+        <f t="shared" ref="O424:O435" si="30">O423+1</f>
+        <v>3</v>
+      </c>
+      <c r="P424">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>424</v>
       </c>
@@ -21749,8 +24704,15 @@
       <c r="N425">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O425">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="P425">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>425</v>
       </c>
@@ -21793,8 +24755,15 @@
       <c r="N426">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O426">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="P426">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>426</v>
       </c>
@@ -21837,8 +24806,15 @@
       <c r="N427">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O427">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="P427">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>427</v>
       </c>
@@ -21881,8 +24857,15 @@
       <c r="N428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O428">
+        <f t="shared" si="30"/>
+        <v>7</v>
+      </c>
+      <c r="P428">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>428</v>
       </c>
@@ -21925,8 +24908,15 @@
       <c r="N429">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O429">
+        <f t="shared" si="30"/>
+        <v>8</v>
+      </c>
+      <c r="P429">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>429</v>
       </c>
@@ -21969,8 +24959,15 @@
       <c r="N430">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O430">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="P430">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>430</v>
       </c>
@@ -22013,8 +25010,15 @@
       <c r="N431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O431">
+        <f>O430+1</f>
+        <v>10</v>
+      </c>
+      <c r="P431">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>431</v>
       </c>
@@ -22057,8 +25061,15 @@
       <c r="N432">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O432">
+        <f t="shared" si="30"/>
+        <v>11</v>
+      </c>
+      <c r="P432">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="433" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>432</v>
       </c>
@@ -22101,8 +25112,15 @@
       <c r="N433">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O433">
+        <f t="shared" si="30"/>
+        <v>12</v>
+      </c>
+      <c r="P433">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="434" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>433</v>
       </c>
@@ -22145,8 +25163,15 @@
       <c r="N434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O434">
+        <f>O433+1</f>
+        <v>13</v>
+      </c>
+      <c r="P434">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>434</v>
       </c>
@@ -22188,6 +25213,13 @@
       </c>
       <c r="N435">
         <v>0</v>
+      </c>
+      <c r="O435">
+        <f t="shared" si="30"/>
+        <v>14</v>
+      </c>
+      <c r="P435">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Demand_data.xlsx
+++ b/Demand_data.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imrantoprak/Documents/SEM1/MATH007/PROJECT/MMCS_project-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2461914_ed_ac_uk/Documents/S1.3. Methodology, Modelling and Consulting Skills/Group project/MMCS_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2410A7-8D01-114C-BEB2-102342A3D122}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2410A7-8D01-114C-BEB2-102342A3D122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3083,27 +3096,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A420" workbookViewId="0">
-      <selection activeCell="P436" sqref="P436"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3177,7 +3190,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3251,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3326,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3401,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3476,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3551,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3626,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3701,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3776,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3851,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3926,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4001,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4076,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4151,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4226,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4300,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4375,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4450,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4525,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4600,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4675,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4750,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4825,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4900,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4975,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5050,7 +5063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5125,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5200,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5275,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5349,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5424,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5499,7 +5512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5574,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5649,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5724,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5799,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5874,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5949,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6024,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6099,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6174,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6249,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6324,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6398,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6473,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6548,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6623,7 +6636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6698,7 +6711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6773,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6848,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6923,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6998,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7073,7 +7086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7148,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7223,7 +7236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7298,7 +7311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7373,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7447,7 +7460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7522,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7597,7 +7610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7672,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7747,7 +7760,7 @@
         <v>2.3666894411839774</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7822,7 +7835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7897,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7972,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8047,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8122,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8197,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8272,7 +8285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8347,7 +8360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8422,7 +8435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8496,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8571,7 +8584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8646,7 +8659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8721,7 +8734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8796,7 +8809,7 @@
         <v>2.9482714494849009</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8871,7 +8884,7 @@
         <v>10.097301158748982</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8946,7 +8959,7 @@
         <v>2.6399221182040602</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -9021,7 +9034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -9096,7 +9109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -9171,7 +9184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -9246,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -9321,7 +9334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -9396,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -9471,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9545,7 +9558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9620,7 +9633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -9695,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9770,7 +9783,7 @@
         <v>2.7431809573705896</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9845,7 +9858,7 @@
         <v>6.3119670948338573</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9920,7 +9933,7 @@
         <v>5.9611635706674946</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -9995,7 +10008,7 @@
         <v>5.1844689263483881</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -10070,7 +10083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -10145,7 +10158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -10220,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -10295,7 +10308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -10370,7 +10383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -10445,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -10520,7 +10533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -10594,7 +10607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -10669,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -10744,7 +10757,7 @@
         <v>2.3030585628092961</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -10819,7 +10832,7 @@
         <v>15.499286153617504</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -10894,7 +10907,7 @@
         <v>16.983063422885294</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -10969,7 +10982,7 @@
         <v>27.815997800446503</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -11044,7 +11057,7 @@
         <v>15.194736549615534</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -11119,7 +11132,7 @@
         <v>25.791354913837335</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -11194,7 +11207,7 @@
         <v>12.927163080080943</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -11269,7 +11282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -11344,7 +11357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -11419,7 +11432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -11494,7 +11507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -11569,7 +11582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -11643,7 +11656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -11718,7 +11731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -11793,7 +11806,7 @@
         <v>2.2872706132827636</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -11868,7 +11881,7 @@
         <v>15.132025584166866</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -11943,7 +11956,7 @@
         <v>56.350999691511589</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -12018,7 +12031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -12093,7 +12106,7 @@
         <v>160.33497317398266</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -12168,7 +12181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -12243,7 +12256,7 @@
         <v>154.60338068170276</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -12318,7 +12331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -12393,7 +12406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -12468,7 +12481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -12543,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -12618,7 +12631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -12692,7 +12705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -12767,7 +12780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -12842,7 +12855,7 @@
         <v>1.8197429655268667</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -12917,7 +12930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -12992,7 +13005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -13067,7 +13080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -13142,7 +13155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -13217,7 +13230,7 @@
         <v>709.86834706889249</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -13292,7 +13305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -13367,7 +13380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -13442,7 +13455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -13517,7 +13530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -13592,7 +13605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -13667,7 +13680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -13741,7 +13754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -13816,7 +13829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -13891,7 +13904,7 @@
         <v>0.74609461941198374</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -13966,7 +13979,7 @@
         <v>7.3114744600959645</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -14041,7 +14054,7 @@
         <v>51.734530606179291</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -14116,7 +14129,7 @@
         <v>114.9046599450438</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -14191,7 +14204,7 @@
         <v>279.04564573582257</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -14266,7 +14279,7 @@
         <v>207.98494723427649</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -14341,7 +14354,7 @@
         <v>175.38687497169335</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -14416,7 +14429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -14491,7 +14504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -14566,7 +14579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -14641,7 +14654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -14716,7 +14729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -14790,7 +14803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -14865,7 +14878,7 @@
         <v>1.4254082154754553</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -14940,7 +14953,7 @@
         <v>3.827064838453671</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -15015,7 +15028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -15090,7 +15103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -15165,7 +15178,7 @@
         <v>196.60299353419654</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -15240,7 +15253,7 @@
         <v>120.06672501306601</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -15315,7 +15328,7 @@
         <v>95.481690748122659</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -15390,7 +15403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -15465,7 +15478,7 @@
         <v>21.980604731239648</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -15540,7 +15553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -15615,7 +15628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -15690,7 +15703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -15765,7 +15778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -15839,7 +15852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -15914,7 +15927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -15989,7 +16002,7 @@
         <v>55.717974383596463</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -16064,7 +16077,7 @@
         <v>52.586737639222648</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -16139,7 +16152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -16214,7 +16227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -16289,7 +16302,7 @@
         <v>160.68603152715895</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -16364,7 +16377,7 @@
         <v>136.1173230917762</v>
       </c>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -16439,7 +16452,7 @@
         <v>54.203634652408148</v>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -16514,7 +16527,7 @@
         <v>14.496861909531239</v>
       </c>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -16589,7 +16602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -16664,7 +16677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -16739,7 +16752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -16814,7 +16827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -16888,7 +16901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -16963,7 +16976,7 @@
         <v>195.60983068983393</v>
       </c>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -17038,7 +17051,7 @@
         <v>307.72866121587037</v>
       </c>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -17113,7 +17126,7 @@
         <v>296.72179621388875</v>
       </c>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -17188,7 +17201,7 @@
         <v>138.25998363856877</v>
       </c>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -17263,7 +17276,7 @@
         <v>117.18445693377942</v>
       </c>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -17338,7 +17351,7 @@
         <v>330.18622553825281</v>
       </c>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -17413,7 +17426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -17488,7 +17501,7 @@
         <v>54.379514433108184</v>
       </c>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -17563,7 +17576,7 @@
         <v>17.748018269147487</v>
       </c>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -17638,7 +17651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -17713,7 +17726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -17788,7 +17801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -17863,7 +17876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -17937,7 +17950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -18012,7 +18025,7 @@
         <v>217.82064268323714</v>
       </c>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -18087,7 +18100,7 @@
         <v>886.32775740178477</v>
       </c>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -18162,7 +18175,7 @@
         <v>666.50578836033378</v>
       </c>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -18237,7 +18250,7 @@
         <v>219.54499383829591</v>
       </c>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -18312,7 +18325,7 @@
         <v>120.84116817066267</v>
       </c>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -18387,7 +18400,7 @@
         <v>113.19540343174238</v>
       </c>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -18462,7 +18475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -18537,7 +18550,7 @@
         <v>36.654024093544564</v>
       </c>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -18612,7 +18625,7 @@
         <v>11.38806701672803</v>
       </c>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -18687,7 +18700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -18762,7 +18775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -18837,7 +18850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -18912,7 +18925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -18986,7 +18999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -19061,7 +19074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -19136,7 +19149,7 @@
         <v>374.52420106621202</v>
       </c>
     </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -19211,7 +19224,7 @@
         <v>609.96891871070284</v>
       </c>
     </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -19286,7 +19299,7 @@
         <v>237.25564437382619</v>
       </c>
     </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -19361,7 +19374,7 @@
         <v>55.967191805402173</v>
       </c>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -19436,7 +19449,7 @@
         <v>19.420972590733268</v>
       </c>
     </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -19511,7 +19524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -19586,7 +19599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -19661,7 +19674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -19736,7 +19749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -19811,7 +19824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -19886,7 +19899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -19961,7 +19974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -20035,7 +20048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -20110,7 +20123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -20185,7 +20198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -20260,7 +20273,7 @@
         <v>241.21365904093335</v>
       </c>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -20335,7 +20348,7 @@
         <v>146.84077585076838</v>
       </c>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -20410,7 +20423,7 @@
         <v>28.784850987774515</v>
       </c>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -20485,7 +20498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -20560,7 +20573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -20635,7 +20648,7 @@
         <v>1.9555100325524344</v>
       </c>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -20710,7 +20723,7 @@
         <v>3.6568346125311506</v>
       </c>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -20785,7 +20798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -20860,7 +20873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -20935,7 +20948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -21010,7 +21023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -21084,7 +21097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -21159,7 +21172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -21234,7 +21247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -21309,7 +21322,7 @@
         <v>44.125668135320431</v>
       </c>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -21384,7 +21397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -21459,7 +21472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -21534,7 +21547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -21609,7 +21622,7 @@
         <v>0.13957770154934704</v>
       </c>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -21684,7 +21697,7 @@
         <v>1.9807815308995544</v>
       </c>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -21759,7 +21772,7 @@
         <v>12.355451544361923</v>
       </c>
     </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -21834,7 +21847,7 @@
         <v>12.203041153252828</v>
       </c>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -21909,7 +21922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -21984,7 +21997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -22059,7 +22072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -22133,7 +22146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -22208,7 +22221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -22283,7 +22296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -22358,7 +22371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -22433,7 +22446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -22508,7 +22521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -22583,7 +22596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -22658,7 +22671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -22733,7 +22746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -22808,7 +22821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -22883,7 +22896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -22958,7 +22971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -23033,7 +23046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -23108,7 +23121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -23182,7 +23195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -23257,7 +23270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -23332,7 +23345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -23407,7 +23420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -23482,7 +23495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -23557,7 +23570,7 @@
         <v>4.4238198723676794</v>
       </c>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -23632,7 +23645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -23707,7 +23720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -23782,7 +23795,7 @@
         <v>9.8019971077013146</v>
       </c>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -23857,7 +23870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -23932,7 +23945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -24007,7 +24020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -24082,7 +24095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -24157,7 +24170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -24231,7 +24244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -24306,7 +24319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -24381,7 +24394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -24456,7 +24469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -24531,7 +24544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -24606,7 +24619,7 @@
         <v>12.907600133661512</v>
       </c>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -24681,7 +24694,7 @@
         <v>19.800539738408848</v>
       </c>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -24756,7 +24769,7 @@
         <v>15.258254032416856</v>
       </c>
     </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -24831,7 +24844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -24906,7 +24919,7 @@
         <v>9.0800562175835342</v>
       </c>
     </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -24981,7 +24994,7 @@
         <v>7.7626746743032502</v>
       </c>
     </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -25056,7 +25069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -25131,7 +25144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -25206,7 +25219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -25280,7 +25293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -25355,7 +25368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -25430,7 +25443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -25505,7 +25518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -25580,7 +25593,7 @@
         <v>6.0527708726310836</v>
       </c>
     </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -25655,7 +25668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -25730,7 +25743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -25805,7 +25818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -25880,7 +25893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -25955,7 +25968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -26030,7 +26043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -26105,7 +26118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -26180,7 +26193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -26255,7 +26268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -26329,7 +26342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -26404,7 +26417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -26479,7 +26492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -26554,7 +26567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -26629,7 +26642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -26704,7 +26717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -26779,7 +26792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -26854,7 +26867,7 @@
         <v>4.6501276473062099</v>
       </c>
     </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -26929,7 +26942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -27004,7 +27017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -27079,7 +27092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -27154,7 +27167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -27229,7 +27242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -27304,7 +27317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -27378,7 +27391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -27453,7 +27466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -27528,7 +27541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -27603,7 +27616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -27678,7 +27691,7 @@
         <v>0.74972006735365282</v>
       </c>
     </row>
-    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -27753,7 +27766,7 @@
         <v>1.1289384114691485</v>
       </c>
     </row>
-    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -27828,7 +27841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -27903,7 +27916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -27978,7 +27991,7 @@
         <v>0.75371625800214914</v>
       </c>
     </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -28053,7 +28066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -28128,7 +28141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -28203,7 +28216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -28278,7 +28291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -28353,7 +28366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -28427,7 +28440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -28502,7 +28515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -28577,7 +28590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -28652,7 +28665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -28727,7 +28740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -28802,7 +28815,7 @@
         <v>28.787778807916951</v>
       </c>
     </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -28877,7 +28890,7 @@
         <v>15.072095136615209</v>
       </c>
     </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -28952,7 +28965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -29027,7 +29040,7 @@
         <v>3.0786134519279352E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -29102,7 +29115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -29177,7 +29190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -29252,7 +29265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -29327,7 +29340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -29402,7 +29415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -29476,7 +29489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -29551,7 +29564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -29626,7 +29639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -29701,7 +29714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -29776,7 +29789,7 @@
         <v>186.51852158401582</v>
       </c>
     </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -29851,7 +29864,7 @@
         <v>186.01617690277314</v>
       </c>
     </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -29926,7 +29939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -30001,7 +30014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -30076,7 +30089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -30151,7 +30164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -30226,7 +30239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -30301,7 +30314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -30376,7 +30389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -30451,7 +30464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -30525,7 +30538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -30600,7 +30613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -30675,7 +30688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -30750,7 +30763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -30825,7 +30838,7 @@
         <v>733.37390797831677</v>
       </c>
     </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -30900,7 +30913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -30975,7 +30988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -31050,7 +31063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -31125,7 +31138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -31200,7 +31213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -31275,7 +31288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -31350,7 +31363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -31425,7 +31438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -31500,7 +31513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -31574,7 +31587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -31649,7 +31662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -31724,7 +31737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -31799,7 +31812,7 @@
         <v>167.66488898980865</v>
       </c>
     </row>
-    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -31874,7 +31887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -31949,7 +31962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -32024,7 +32037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -32099,7 +32112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -32174,7 +32187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -32249,7 +32262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -32324,7 +32337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -32399,7 +32412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -32474,7 +32487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -32549,7 +32562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -32623,7 +32636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -32698,7 +32711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -32773,7 +32786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -32848,7 +32861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -32923,7 +32936,7 @@
         <v>13.586414072552504</v>
       </c>
     </row>
-    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -32998,7 +33011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -33073,7 +33086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -33148,7 +33161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -33223,7 +33236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -33298,7 +33311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -33373,7 +33386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -33448,7 +33461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -33523,7 +33536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -33598,7 +33611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -33672,7 +33685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -33747,7 +33760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -33822,7 +33835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -33897,7 +33910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -33972,7 +33985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -34047,7 +34060,7 @@
         <v>0.36846533409512439</v>
       </c>
     </row>
-    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -34122,7 +34135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -34197,7 +34210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -34272,7 +34285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -34347,7 +34360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -34422,7 +34435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -34497,7 +34510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -34572,7 +34585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -34647,7 +34660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -34721,7 +34734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -34796,7 +34809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -34871,7 +34884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -34946,7 +34959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -35021,7 +35034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -35096,7 +35109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -35171,7 +35184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
@@ -35246,7 +35259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
@@ -35321,7 +35334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
@@ -35396,7 +35409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -35471,7 +35484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -35546,7 +35559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -35621,7 +35634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -35696,7 +35709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="P436" s="3" t="s">
         <v>892</v>
       </c>
@@ -35725,7 +35738,7 @@
         <v>9949.7503038753875</v>
       </c>
     </row>
-    <row r="437" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:24" x14ac:dyDescent="0.25">
       <c r="Q437">
         <v>191.44786097761684</v>
       </c>
